--- a/Jogos_do_Dia/2023-11-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.44</v>
@@ -718,10 +718,10 @@
         <v>3.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>

--- a/Jogos_do_Dia/2023-11-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,10 +691,10 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
@@ -718,10 +718,10 @@
         <v>3.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
